--- a/Caspian data_01.03.2023_SA.xlsx
+++ b/Caspian data_01.03.2023_SA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Kasp.Makarova\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D7C32F-0E29-4396-A61B-64B3801FC73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ACF297-4A35-4BFA-BCC1-41EC42240F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$B$1:$B$194</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">samples!$A$1:$AA$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">taxa!$A$1:$L$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">taxa!$A$1:$M$187</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="1258">
   <si>
     <t>sp</t>
   </si>
@@ -5315,6 +5315,18 @@
   </si>
   <si>
     <t>sandy dunes</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>(Semi)Cosmopolitan</t>
+  </si>
+  <si>
+    <t>Caspian and/or Caucasian</t>
+  </si>
+  <si>
+    <t>area2</t>
   </si>
 </sst>
 </file>
@@ -5448,7 +5460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5593,6 +5605,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5633,7 +5651,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5825,6 +5843,8 @@
     <xf numFmtId="1" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -74500,7 +74520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
@@ -87737,13 +87757,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87757,12 +87777,12 @@
     <col min="7" max="7" width="7.5546875" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="32" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="33" customWidth="1"/>
+    <col min="10" max="11" width="18.88671875" style="32" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -87793,14 +87813,17 @@
       <c r="J1" s="34" t="s">
         <v>665</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="34" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1058</v>
       </c>
@@ -87813,14 +87836,17 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="87" t="s">
         <v>1086</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K2" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1067</v>
       </c>
@@ -87833,14 +87859,17 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="87" t="s">
         <v>1086</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K3" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>B4&amp;" "&amp;C4&amp;IF(LEN(G4&gt;1),G4,"")</f>
         <v>Acrotritia ardua</v>
@@ -87863,20 +87892,23 @@
       <c r="H4" t="s">
         <v>668</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="87" t="s">
         <v>672</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L4" t="s">
         <v>674</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(LEN(G5&gt;1),G5,"")</f>
         <v>Amblyseius meridionalis</v>
@@ -87899,20 +87931,23 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L5" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="M5" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1059</v>
       </c>
@@ -87925,14 +87960,17 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J6" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K6" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1068</v>
       </c>
@@ -87945,14 +87983,17 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K7" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -87974,20 +88015,23 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="87" t="s">
         <v>1096</v>
       </c>
       <c r="J8" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L8" t="s">
         <v>678</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="M8" s="33" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1191</v>
       </c>
@@ -88012,20 +88056,23 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="87" t="s">
         <v>1096</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L9" t="s">
         <v>1102</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="M9" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>B10&amp;" "&amp;C10&amp;IF(LEN(G10&gt;1),G10,"")</f>
         <v>Androlaelaps casalis</v>
@@ -88048,20 +88095,23 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L10" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="M10" s="37" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(LEN(G11&gt;1),G11,"")</f>
         <v>Antennoseius (Vitzthumia) sp.</v>
@@ -88075,20 +88125,23 @@
       <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>1220</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>688</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="M11" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>B12&amp;" "&amp;C12&amp;IF(LEN(G12&gt;1),G12,"")</f>
         <v>Anthoseius sp.</v>
@@ -88102,18 +88155,21 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>B13&amp;" "&amp;C13&amp;IF(LEN(G13&gt;1),G13,"")</f>
         <v>Aphelacarus acarinus</v>
@@ -88136,20 +88192,23 @@
       <c r="H13" t="s">
         <v>668</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="87" t="s">
         <v>692</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L13" t="s">
         <v>674</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="M13" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -88171,20 +88230,23 @@
       <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="M14" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -88206,20 +88268,23 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>1221</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L15" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="M15" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -88241,20 +88306,23 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L16" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="M16" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>B17&amp;" "&amp;C17&amp;IF(LEN(G17&gt;1)," "&amp;G17,"")</f>
         <v>Austrophthiracarus duplex (cf.)</v>
@@ -88280,20 +88348,23 @@
       <c r="H17" t="s">
         <v>668</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="87" t="s">
         <v>701</v>
       </c>
       <c r="J17" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L17" t="s">
         <v>703</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="M17" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>136</v>
       </c>
@@ -88306,17 +88377,20 @@
       <c r="H18" t="s">
         <v>668</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="87" t="s">
         <v>952</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="K18" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M18" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
@@ -88341,20 +88415,23 @@
       <c r="H19" t="s">
         <v>668</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="87" t="s">
         <v>705</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="L19" t="s">
         <v>674</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="M19" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>B20&amp;" "&amp;C20&amp;IF(LEN(G20&gt;1),G20,"")</f>
         <v>Belbodamaeus sp.</v>
@@ -88368,20 +88445,23 @@
       <c r="H20" t="s">
         <v>668</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="87" t="s">
         <v>705</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L20" t="s">
         <v>688</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="M20" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>B21&amp;" "&amp;C21&amp;IF(LEN(G21&gt;1),G21,"")</f>
         <v>Berniniella sigma</v>
@@ -88404,20 +88484,23 @@
       <c r="H21" t="s">
         <v>668</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L21" t="s">
         <v>678</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="M21" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -88430,20 +88513,23 @@
       <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L22" t="s">
         <v>1102</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="M22" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -88465,20 +88551,23 @@
       <c r="H23" t="s">
         <v>668</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="87" t="s">
         <v>738</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L23" t="s">
         <v>674</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="M23" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -88500,20 +88589,23 @@
       <c r="H24" t="s">
         <v>668</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="87" t="s">
         <v>738</v>
       </c>
       <c r="J24" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L24" t="s">
         <v>674</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="M24" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>210</v>
       </c>
@@ -88526,17 +88618,20 @@
       <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="87" t="s">
         <v>1095</v>
       </c>
       <c r="J25" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="K25" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M25" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>B26&amp;" "&amp;C26&amp;IF(LEN(G26&gt;1),G26,"")</f>
         <v>Cheiroseius curtipes</v>
@@ -88559,20 +88654,23 @@
       <c r="H26" t="s">
         <v>11</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L26" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="M26" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>B27&amp;" "&amp;C27&amp;IF(LEN(G27&gt;1),G27,"")</f>
         <v>Cheiroseius necorniger</v>
@@ -88595,20 +88693,23 @@
       <c r="H27" t="s">
         <v>11</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J27" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L27" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L27" s="37" t="s">
+      <c r="M27" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -88630,20 +88731,23 @@
       <c r="H28" t="s">
         <v>11</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L28" t="s">
         <v>678</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="M28" s="33" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>B29&amp;" "&amp;C29&amp;IF(LEN(G29&gt;1),G29,"")</f>
         <v>Cheiroseius sp.1</v>
@@ -88657,18 +88761,21 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J29" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37" t="s">
+      <c r="K29" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L29" s="36"/>
+      <c r="M29" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>B30&amp;" "&amp;C30&amp;IF(LEN(G30&gt;1),G30,"")</f>
         <v>Cheiroseius sp.2</v>
@@ -88682,18 +88789,21 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J30" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37" t="s">
+      <c r="K30" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L30" s="36"/>
+      <c r="M30" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1076</v>
       </c>
@@ -88706,17 +88816,20 @@
       <c r="H31" t="s">
         <v>11</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L31" s="33" t="s">
+      <c r="K31" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M31" s="33" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1079</v>
       </c>
@@ -88729,17 +88842,20 @@
       <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="K32" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M32" s="33" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>B33&amp;" "&amp;C33&amp;IF(LEN(G33&gt;1),G33,"")</f>
         <v>Cosmolaelaps lutegiensis</v>
@@ -88762,20 +88878,23 @@
       <c r="H33" t="s">
         <v>11</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J33" s="32" t="s">
         <v>1222</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="M33" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -88797,20 +88916,23 @@
       <c r="H34" t="s">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J34" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L34" t="s">
         <v>678</v>
       </c>
-      <c r="L34" s="33" t="s">
+      <c r="M34" s="33" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>B35&amp;" "&amp;C35&amp;IF(LEN(G35&gt;1),G35,"")</f>
         <v>Cyrthydrolaelaps schusteri</v>
@@ -88833,20 +88955,23 @@
       <c r="H35" t="s">
         <v>11</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="87" t="s">
         <v>725</v>
       </c>
       <c r="J35" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="L35" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="M35" s="37" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -88868,20 +88993,23 @@
       <c r="H36" t="s">
         <v>11</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="87" t="s">
         <v>730</v>
       </c>
       <c r="J36" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L36" t="s">
         <v>678</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="M36" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>B37&amp;" "&amp;C37&amp;IF(LEN(G37&gt;1)," "&amp;G37,"")</f>
         <v>Dendrolaelaps strenzkeiformis (aff.)</v>
@@ -88907,20 +89035,23 @@
       <c r="H37" t="s">
         <v>11</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="87" t="s">
         <v>730</v>
       </c>
       <c r="J37" s="32" t="s">
         <v>1101</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L37" s="36" t="s">
         <v>1102</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="M37" s="37" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>B38&amp;" "&amp;C38&amp;IF(LEN(G38&gt;1),G38,"")</f>
         <v>Dendrolaelaspis bregetovae</v>
@@ -88943,20 +89074,23 @@
       <c r="H38" t="s">
         <v>11</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="87" t="s">
         <v>730</v>
       </c>
       <c r="J38" s="32" t="s">
         <v>1103</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L38" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="M38" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -88981,20 +89115,23 @@
       <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="87" t="s">
         <v>730</v>
       </c>
       <c r="J39" s="32" t="s">
         <v>1101</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K39" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L39" s="36" t="s">
         <v>688</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="M39" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -89007,17 +89144,20 @@
       <c r="H40" t="s">
         <v>11</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="87" t="s">
         <v>730</v>
       </c>
       <c r="J40" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L40" s="33" t="s">
+      <c r="K40" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M40" s="33" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -89039,20 +89179,23 @@
       <c r="H41" t="s">
         <v>11</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J41" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L41" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L41" s="33" t="s">
+      <c r="M41" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -89065,17 +89208,20 @@
       <c r="H42" t="s">
         <v>11</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="87" t="s">
         <v>1094</v>
       </c>
       <c r="J42" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L42" s="33" t="s">
+      <c r="K42" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M42" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>214</v>
       </c>
@@ -89097,20 +89243,23 @@
       <c r="H43" t="s">
         <v>11</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J43" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L43" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L43" s="33" t="s">
+      <c r="M43" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>B44&amp;" "&amp;C44&amp;IF(LEN(G44&gt;1),G44,"")</f>
         <v>Dissorhina ornata</v>
@@ -89133,20 +89282,23 @@
       <c r="H44" t="s">
         <v>668</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J44" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L44" t="s">
         <v>674</v>
       </c>
-      <c r="L44" s="37" t="s">
+      <c r="M44" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>B45&amp;" "&amp;C45&amp;IF(LEN(G45&gt;1),G45,"")</f>
         <v>Eobrachychthonius latior</v>
@@ -89169,20 +89321,23 @@
       <c r="H45" t="s">
         <v>668</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="87" t="s">
         <v>738</v>
       </c>
       <c r="J45" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L45" t="s">
         <v>674</v>
       </c>
-      <c r="L45" s="37" t="s">
+      <c r="M45" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1107</v>
       </c>
@@ -89204,20 +89359,23 @@
       <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="87" t="s">
         <v>1093</v>
       </c>
       <c r="J46" s="32" t="s">
         <v>1216</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L46" t="s">
         <v>703</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="M46" s="33" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>B47&amp;" "&amp;C47&amp;IF(LEN(G47&gt;1),G47,"")</f>
         <v>Epilohmannia styriaca</v>
@@ -89240,20 +89398,23 @@
       <c r="H47" t="s">
         <v>668</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="87" t="s">
         <v>742</v>
       </c>
       <c r="J47" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L47" t="s">
         <v>678</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="M47" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>B48&amp;" "&amp;C48&amp;IF(LEN(G48&gt;1),G48,"")</f>
         <v>Euandrolaelaps karawaiewi</v>
@@ -89276,20 +89437,23 @@
       <c r="H48" t="s">
         <v>11</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J48" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K48" s="36" t="s">
+      <c r="K48" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L48" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L48" s="37" t="s">
+      <c r="M48" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
@@ -89311,20 +89475,23 @@
       <c r="H49" t="s">
         <v>668</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="87" t="s">
         <v>920</v>
       </c>
       <c r="J49" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L49" t="s">
         <v>674</v>
       </c>
-      <c r="L49" s="37" t="s">
+      <c r="M49" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>B50&amp;" "&amp;C50&amp;IF(LEN(G50&gt;1),G50,"")</f>
         <v>Gaeolaelaps aculeifer</v>
@@ -89347,20 +89514,23 @@
       <c r="H50" t="s">
         <v>11</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J50" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K50" s="36" t="s">
+      <c r="K50" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L50" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="L50" s="37" t="s">
+      <c r="M50" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>B51&amp;" "&amp;C51&amp;IF(LEN(G51&gt;1),G51,"")</f>
         <v>Gaeolaelaps kargi</v>
@@ -89383,20 +89553,23 @@
       <c r="H51" t="s">
         <v>11</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J51" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L51" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="L51" s="37" t="s">
+      <c r="M51" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>B52&amp;" "&amp;C52&amp;IF(LEN(G52&gt;1),G52,"")</f>
         <v>Gaeolaelaps nolli</v>
@@ -89419,20 +89592,23 @@
       <c r="H52" t="s">
         <v>11</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J52" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L52" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L52" s="37" t="s">
+      <c r="M52" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -89454,20 +89630,23 @@
       <c r="H53" t="s">
         <v>11</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J53" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="K53" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L53" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="L53" s="33" t="s">
+      <c r="M53" s="33" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>B54&amp;" "&amp;C54&amp;IF(LEN(G54&gt;1),G54,"")</f>
         <v>Gaeolaelaps sp.1</v>
@@ -89481,16 +89660,19 @@
       <c r="H54" t="s">
         <v>11</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J54" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K54" s="36"/>
-      <c r="L54" s="37"/>
+      <c r="K54" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L54" s="36"/>
+      <c r="M54" s="37"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -89512,20 +89694,23 @@
       <c r="H55" t="s">
         <v>668</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="87" t="s">
         <v>755</v>
       </c>
       <c r="J55" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L55" t="s">
         <v>674</v>
       </c>
-      <c r="L55" s="37" t="s">
+      <c r="M55" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
@@ -89538,17 +89723,20 @@
       <c r="H56" t="s">
         <v>668</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="87" t="s">
         <v>755</v>
       </c>
       <c r="J56" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L56" s="37" t="s">
+      <c r="K56" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M56" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>B57&amp;" "&amp;C57&amp;IF(LEN(G57&gt;1),G57,"")</f>
         <v>Galumna tarsipennata</v>
@@ -89571,20 +89759,23 @@
       <c r="H57" t="s">
         <v>668</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="87" t="s">
         <v>755</v>
       </c>
       <c r="J57" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L57" t="s">
         <v>678</v>
       </c>
-      <c r="L57" s="37" t="s">
+      <c r="M57" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -89606,20 +89797,23 @@
       <c r="H58" t="s">
         <v>11</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J58" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L58" t="s">
         <v>678</v>
       </c>
-      <c r="L58" s="33" t="s">
+      <c r="M58" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -89632,14 +89826,17 @@
       <c r="H59" t="s">
         <v>11</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J59" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K59" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>B60&amp;" "&amp;C60&amp;IF(LEN(G60&gt;1),G60,"")</f>
         <v>Gamasellodes vulgatior</v>
@@ -89662,20 +89859,23 @@
       <c r="H60" t="s">
         <v>11</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J60" s="32" t="s">
         <v>1111</v>
       </c>
-      <c r="K60" s="36" t="s">
+      <c r="K60" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L60" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="L60" s="37" t="s">
+      <c r="M60" s="37" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>199</v>
       </c>
@@ -89697,20 +89897,23 @@
       <c r="H61" t="s">
         <v>11</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="87" t="s">
         <v>1090</v>
       </c>
       <c r="J61" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L61" t="s">
         <v>703</v>
       </c>
-      <c r="L61" s="33" t="s">
+      <c r="M61" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>B62&amp;" "&amp;C62&amp;IF(LEN(G62&gt;1),G62,"")</f>
         <v>Halolaelaps alberti</v>
@@ -89733,20 +89936,23 @@
       <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="87" t="s">
         <v>762</v>
       </c>
       <c r="J62" s="32" t="s">
         <v>1224</v>
       </c>
-      <c r="K62" s="36" t="s">
+      <c r="K62" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L62" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="L62" s="32" t="s">
+      <c r="M62" s="32" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>B63&amp;" "&amp;C63&amp;IF(LEN(G63&gt;1)," "&amp;G63,"")</f>
         <v>Halolaelaps schusteri (cf.)</v>
@@ -89772,20 +89978,23 @@
       <c r="H63" t="s">
         <v>11</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="87" t="s">
         <v>762</v>
       </c>
       <c r="J63" s="32" t="s">
         <v>1224</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L63" t="s">
         <v>703</v>
       </c>
-      <c r="L63" s="37" t="s">
+      <c r="M63" s="37" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>B64&amp;" "&amp;C64&amp;IF(LEN(G64&gt;1),G64,"")</f>
         <v>Haplochthonius simplex</v>
@@ -89808,20 +90017,23 @@
       <c r="H64" t="s">
         <v>668</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="87" t="s">
         <v>766</v>
       </c>
       <c r="J64" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L64" t="s">
         <v>674</v>
       </c>
-      <c r="L64" s="37" t="s">
+      <c r="M64" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -89834,14 +90046,17 @@
       <c r="H65" t="s">
         <v>9</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="87" t="s">
         <v>1086</v>
       </c>
       <c r="J65" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K65" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1060</v>
       </c>
@@ -89854,14 +90069,17 @@
       <c r="H66" t="s">
         <v>9</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="87" t="s">
         <v>1089</v>
       </c>
       <c r="J66" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K66" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1069</v>
       </c>
@@ -89874,14 +90092,17 @@
       <c r="H67" t="s">
         <v>9</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="87" t="s">
         <v>1089</v>
       </c>
       <c r="J67" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K67" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>B68&amp;" "&amp;C68&amp;IF(LEN(G68&gt;1),G68,"")</f>
         <v>Hydrozetes lacustris parisiensis</v>
@@ -89904,20 +90125,23 @@
       <c r="H68" t="s">
         <v>668</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="87" t="s">
         <v>770</v>
       </c>
       <c r="J68" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L68" t="s">
         <v>674</v>
       </c>
-      <c r="L68" s="37" t="s">
+      <c r="M68" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>112</v>
       </c>
@@ -89939,20 +90163,23 @@
       <c r="H69" t="s">
         <v>668</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="87" t="s">
         <v>770</v>
       </c>
       <c r="J69" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L69" t="s">
         <v>678</v>
       </c>
-      <c r="L69" s="37" t="s">
+      <c r="M69" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -89977,20 +90204,23 @@
       <c r="H70" t="s">
         <v>11</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J70" s="32" t="s">
         <v>1221</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L70" t="s">
         <v>678</v>
       </c>
-      <c r="L70" s="33" t="s">
+      <c r="M70" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>B71&amp;" "&amp;C71&amp;IF(LEN(G71&gt;1),G71,"")</f>
         <v>Jacotella frondeus</v>
@@ -90013,20 +90243,23 @@
       <c r="H71" t="s">
         <v>668</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="87" t="s">
         <v>774</v>
       </c>
       <c r="J71" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L71" t="s">
         <v>674</v>
       </c>
-      <c r="L71" s="37" t="s">
+      <c r="M71" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>172</v>
       </c>
@@ -90039,17 +90272,20 @@
       <c r="H72" t="s">
         <v>11</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J72" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L72" s="33" t="s">
+      <c r="K72" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M72" s="33" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -90071,20 +90307,23 @@
       <c r="H73" t="s">
         <v>668</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J73" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L73" t="s">
         <v>674</v>
       </c>
-      <c r="L73" s="37" t="s">
+      <c r="M73" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -90097,17 +90336,20 @@
       <c r="H74" t="s">
         <v>668</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J74" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L74" s="37" t="s">
+      <c r="K74" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M74" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>B75&amp;" "&amp;C75&amp;IF(LEN(G75&gt;1),G75,"")</f>
         <v>Lasioseius confusus</v>
@@ -90130,20 +90372,23 @@
       <c r="H75" t="s">
         <v>11</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J75" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K75" s="36" t="s">
+      <c r="K75" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L75" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L75" s="37" t="s">
+      <c r="M75" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1061</v>
       </c>
@@ -90156,14 +90401,17 @@
       <c r="H76" t="s">
         <v>11</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J76" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K76" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1070</v>
       </c>
@@ -90176,14 +90424,17 @@
       <c r="H77" t="s">
         <v>11</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J77" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K77" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1077</v>
       </c>
@@ -90196,14 +90447,17 @@
       <c r="H78" t="s">
         <v>11</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J78" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K78" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1080</v>
       </c>
@@ -90216,14 +90470,17 @@
       <c r="H79" t="s">
         <v>11</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J79" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K79" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -90248,20 +90505,23 @@
       <c r="H80" t="s">
         <v>11</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J80" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L80" t="s">
         <v>678</v>
       </c>
-      <c r="L80" s="33" t="s">
+      <c r="M80" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
@@ -90283,20 +90543,23 @@
       <c r="H81" t="s">
         <v>668</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="87" t="s">
         <v>914</v>
       </c>
       <c r="J81" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L81" t="s">
         <v>674</v>
       </c>
-      <c r="L81" s="37" t="s">
+      <c r="M81" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -90318,20 +90581,23 @@
       <c r="H82" t="s">
         <v>11</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J82" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L82" t="s">
         <v>678</v>
       </c>
-      <c r="L82" s="33" t="s">
+      <c r="M82" s="33" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>139</v>
       </c>
@@ -90353,20 +90619,23 @@
       <c r="H83" t="s">
         <v>11</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="87" t="s">
         <v>762</v>
       </c>
       <c r="J83" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L83" t="s">
         <v>678</v>
       </c>
-      <c r="L83" s="33" t="s">
+      <c r="M83" s="33" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -90391,20 +90660,23 @@
       <c r="H84" t="s">
         <v>11</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J84" s="32" t="s">
         <v>1221</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L84" t="s">
         <v>678</v>
       </c>
-      <c r="L84" s="33" t="s">
+      <c r="M84" s="33" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>69</v>
       </c>
@@ -90426,20 +90698,23 @@
       <c r="H85" t="s">
         <v>668</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="87" t="s">
         <v>844</v>
       </c>
       <c r="J85" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L85" t="s">
         <v>674</v>
       </c>
-      <c r="L85" s="37" t="s">
+      <c r="M85" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>100</v>
       </c>
@@ -90461,20 +90736,23 @@
       <c r="H86" t="s">
         <v>668</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="87" t="s">
         <v>738</v>
       </c>
       <c r="J86" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L86" t="s">
         <v>674</v>
       </c>
-      <c r="L86" s="37" t="s">
+      <c r="M86" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -90487,20 +90765,23 @@
       <c r="H87" t="s">
         <v>11</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="87" t="s">
         <v>677</v>
       </c>
       <c r="J87" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L87" t="s">
         <v>1119</v>
       </c>
-      <c r="L87" s="33" t="s">
+      <c r="M87" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>B88&amp;" "&amp;C88&amp;IF(LEN(G88&gt;1),G88,"")</f>
         <v>Macrocheles glaber</v>
@@ -90523,20 +90804,23 @@
       <c r="H88" t="s">
         <v>11</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="87" t="s">
         <v>780</v>
       </c>
       <c r="J88" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K88" s="36" t="s">
+      <c r="K88" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L88" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="L88" s="37" t="s">
+      <c r="M88" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -90558,20 +90842,23 @@
       <c r="H89" t="s">
         <v>11</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="87" t="s">
         <v>780</v>
       </c>
       <c r="J89" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L89" t="s">
         <v>678</v>
       </c>
-      <c r="L89" s="33" t="s">
+      <c r="M89" s="33" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -90593,20 +90880,23 @@
       <c r="H90" t="s">
         <v>11</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="87" t="s">
         <v>780</v>
       </c>
       <c r="J90" s="32" t="s">
         <v>1088</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L90" t="s">
         <v>674</v>
       </c>
-      <c r="L90" s="33" t="s">
+      <c r="M90" s="33" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>B91&amp;" "&amp;C91&amp;IF(LEN(G91&gt;1),G91,"")</f>
         <v>Macrocheles merdarius</v>
@@ -90629,20 +90919,23 @@
       <c r="H91" t="s">
         <v>11</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="87" t="s">
         <v>780</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K91" s="36" t="s">
+      <c r="K91" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L91" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L91" s="37" t="s">
+      <c r="M91" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>B92&amp;" "&amp;C92&amp;IF(LEN(G92&gt;1),G92,"")</f>
         <v>Macrocheles penicilliger</v>
@@ -90665,20 +90958,23 @@
       <c r="H92" t="s">
         <v>11</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="87" t="s">
         <v>780</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K92" s="36" t="s">
+      <c r="K92" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L92" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L92" s="37" t="s">
+      <c r="M92" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>B93&amp;" "&amp;C93&amp;IF(LEN(G93&gt;1),G93,"")</f>
         <v>Macrocheles peniculatus</v>
@@ -90701,20 +90997,23 @@
       <c r="H93" t="s">
         <v>11</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="87" t="s">
         <v>780</v>
       </c>
       <c r="J93" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K93" s="36" t="s">
+      <c r="K93" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L93" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L93" s="37" t="s">
+      <c r="M93" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>B94&amp;" "&amp;C94&amp;IF(LEN(G94&gt;1),G94,"")</f>
         <v>Macrocheles scutatus</v>
@@ -90737,20 +91036,23 @@
       <c r="H94" t="s">
         <v>11</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="87" t="s">
         <v>780</v>
       </c>
       <c r="J94" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K94" s="36" t="s">
+      <c r="K94" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L94" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L94" s="37" t="s">
+      <c r="M94" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>118</v>
       </c>
@@ -90772,20 +91074,23 @@
       <c r="H95" t="s">
         <v>668</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="87" t="s">
         <v>923</v>
       </c>
       <c r="J95" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L95" t="s">
         <v>674</v>
       </c>
-      <c r="L95" s="37" t="s">
+      <c r="M95" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>B96&amp;" "&amp;C96&amp;IF(LEN(G96&gt;1),G96,"")</f>
         <v>Mesotritia nuda</v>
@@ -90808,20 +91113,23 @@
       <c r="H96" t="s">
         <v>668</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="87" t="s">
         <v>787</v>
       </c>
       <c r="J96" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L96" t="s">
         <v>674</v>
       </c>
-      <c r="L96" s="37" t="s">
+      <c r="M96" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -90843,20 +91151,23 @@
       <c r="H97" t="s">
         <v>11</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J97" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K97" s="36" t="s">
+      <c r="K97" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L97" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="L97" s="33" t="s">
+      <c r="M97" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>B98&amp;" "&amp;C98&amp;IF(LEN(G98&gt;1),G98,"")</f>
         <v>Microppia minus</v>
@@ -90879,20 +91190,23 @@
       <c r="H98" t="s">
         <v>668</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J98" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L98" t="s">
         <v>674</v>
       </c>
-      <c r="L98" s="37" t="s">
+      <c r="M98" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1091</v>
       </c>
@@ -90914,20 +91228,23 @@
       <c r="H99" t="s">
         <v>11</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="87" t="s">
         <v>1092</v>
       </c>
       <c r="J99" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L99" t="s">
         <v>678</v>
       </c>
-      <c r="L99" s="33" t="s">
+      <c r="M99" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -90949,20 +91266,23 @@
       <c r="H100" t="s">
         <v>668</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="87" t="s">
         <v>946</v>
       </c>
       <c r="J100" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L100" t="s">
         <v>674</v>
       </c>
-      <c r="L100" s="37" t="s">
+      <c r="M100" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -90984,20 +91304,23 @@
       <c r="H101" t="s">
         <v>11</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="87" t="s">
         <v>730</v>
       </c>
       <c r="J101" s="32" t="s">
         <v>1202</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L101" t="s">
         <v>678</v>
       </c>
-      <c r="L101" s="33" t="s">
+      <c r="M101" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -91019,20 +91342,23 @@
       <c r="H102" t="s">
         <v>11</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J102" s="32" t="s">
         <v>1217</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="L102" t="s">
         <v>678</v>
       </c>
-      <c r="L102" s="33" t="s">
+      <c r="M102" s="33" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1203</v>
       </c>
@@ -91054,20 +91380,23 @@
       <c r="H103" t="s">
         <v>11</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="87" t="s">
         <v>677</v>
       </c>
       <c r="J103" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L103" t="s">
         <v>678</v>
       </c>
-      <c r="L103" s="33" t="s">
+      <c r="M103" s="33" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -91089,20 +91418,23 @@
       <c r="H104" t="s">
         <v>11</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J104" s="32" t="s">
         <v>1204</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L104" t="s">
         <v>678</v>
       </c>
-      <c r="L104" s="33" t="s">
+      <c r="M104" s="33" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -91115,17 +91447,20 @@
       <c r="H105" t="s">
         <v>11</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J105" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L105" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f>B106&amp;" "&amp;C106&amp;IF(LEN(G106&gt;1),G106,"")</f>
         <v>Neoseiulus agrestis</v>
@@ -91148,20 +91483,23 @@
       <c r="H106" t="s">
         <v>11</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J106" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K106" s="36" t="s">
+      <c r="K106" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L106" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L106" s="37" t="s">
+      <c r="M106" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1062</v>
       </c>
@@ -91174,14 +91512,17 @@
       <c r="H107" t="s">
         <v>11</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J107" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K107" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1071</v>
       </c>
@@ -91194,14 +91535,17 @@
       <c r="H108" t="s">
         <v>11</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J108" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K108" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1078</v>
       </c>
@@ -91214,14 +91558,17 @@
       <c r="H109" t="s">
         <v>11</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J109" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K109" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1081</v>
       </c>
@@ -91234,14 +91581,17 @@
       <c r="H110" t="s">
         <v>11</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J110" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K110" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>B111&amp;" "&amp;C111&amp;IF(LEN(G111&gt;1),G111,"")</f>
         <v>Ololaelaps placentula</v>
@@ -91264,20 +91614,23 @@
       <c r="H111" t="s">
         <v>11</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J111" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K111" s="36" t="s">
+      <c r="K111" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L111" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="L111" s="37" t="s">
+      <c r="M111" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>171</v>
       </c>
@@ -91299,20 +91652,23 @@
       <c r="H112" t="s">
         <v>11</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J112" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L112" t="s">
         <v>678</v>
       </c>
-      <c r="L112" s="33" t="s">
+      <c r="M112" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>209</v>
       </c>
@@ -91334,20 +91690,23 @@
       <c r="H113" t="s">
         <v>11</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J113" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L113" t="s">
         <v>678</v>
       </c>
-      <c r="L113" s="33" t="s">
+      <c r="M113" s="33" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
@@ -91369,20 +91728,23 @@
       <c r="H114" t="s">
         <v>668</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J114" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L114" t="s">
         <v>674</v>
       </c>
-      <c r="L114" s="37" t="s">
+      <c r="M114" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f>B115&amp;" "&amp;C115&amp;IF(LEN(G115&gt;1),G115,"")</f>
         <v>Oppiella nova</v>
@@ -91405,20 +91767,23 @@
       <c r="H115" t="s">
         <v>668</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J115" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L115" t="s">
         <v>674</v>
       </c>
-      <c r="L115" s="37" t="s">
+      <c r="M115" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f>B116&amp;" "&amp;C116&amp;IF(LEN(G116&gt;1)," "&amp;G116,"")</f>
         <v>Oribatella caspica (cf.)</v>
@@ -91444,20 +91809,23 @@
       <c r="H116" t="s">
         <v>668</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="87" t="s">
         <v>800</v>
       </c>
       <c r="J116" s="32" t="s">
         <v>801</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L116" t="s">
         <v>674</v>
       </c>
-      <c r="L116" s="37" t="s">
+      <c r="M116" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -91479,20 +91847,23 @@
       <c r="H117" t="s">
         <v>668</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="87" t="s">
         <v>805</v>
       </c>
       <c r="J117" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L117" t="s">
         <v>674</v>
       </c>
-      <c r="L117" s="37" t="s">
+      <c r="M117" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f>B118&amp;" "&amp;C118&amp;IF(LEN(G118&gt;1),G118,"")</f>
         <v>Oribatula tibialis</v>
@@ -91515,20 +91886,23 @@
       <c r="H118" t="s">
         <v>668</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="87" t="s">
         <v>805</v>
       </c>
       <c r="J118" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K118" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L118" t="s">
         <v>674</v>
       </c>
-      <c r="L118" s="37" t="s">
+      <c r="M118" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="60" t="s">
         <v>180</v>
       </c>
@@ -91553,20 +91927,23 @@
       <c r="H119" t="s">
         <v>11</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="87" t="s">
         <v>1097</v>
       </c>
       <c r="J119" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L119" t="s">
         <v>678</v>
       </c>
-      <c r="L119" s="33" t="s">
+      <c r="M119" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="60" t="s">
         <v>181</v>
       </c>
@@ -91579,14 +91956,17 @@
       <c r="H120" t="s">
         <v>11</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="87" t="s">
         <v>1097</v>
       </c>
       <c r="J120" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K120" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f>B121&amp;" "&amp;C121&amp;IF(LEN(G121&gt;1),G121,"")</f>
         <v>Passalozetes africanus</v>
@@ -91609,20 +91989,23 @@
       <c r="H121" t="s">
         <v>668</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="87" t="s">
         <v>808</v>
       </c>
       <c r="J121" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L121" t="s">
         <v>674</v>
       </c>
-      <c r="L121" s="37" t="s">
+      <c r="M121" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -91644,20 +92027,23 @@
       <c r="H122" t="s">
         <v>668</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="87" t="s">
         <v>755</v>
       </c>
       <c r="J122" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L122" t="s">
         <v>674</v>
       </c>
-      <c r="L122" s="37" t="s">
+      <c r="M122" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="60" t="s">
         <v>1118</v>
       </c>
@@ -91682,20 +92068,23 @@
       <c r="H123" t="s">
         <v>11</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="87" t="s">
         <v>677</v>
       </c>
       <c r="J123" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L123" t="s">
         <v>703</v>
       </c>
-      <c r="L123" s="33" t="s">
+      <c r="M123" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f>B124&amp;" "&amp;C124&amp;IF(LEN(G124&gt;1),G124,"")</f>
         <v>Phorythocarpais distinctus</v>
@@ -91718,20 +92107,23 @@
       <c r="H124" t="s">
         <v>11</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="87" t="s">
         <v>677</v>
       </c>
       <c r="J124" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K124" s="36" t="s">
+      <c r="K124" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L124" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L124" s="37" t="s">
+      <c r="M124" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f>B125&amp;" "&amp;C125&amp;IF(LEN(G125&gt;1),G125,"")</f>
         <v>Phorythocarpais hyalinus</v>
@@ -91754,20 +92146,23 @@
       <c r="H125" t="s">
         <v>11</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="87" t="s">
         <v>677</v>
       </c>
       <c r="J125" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K125" s="36" t="s">
+      <c r="K125" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L125" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L125" s="37" t="s">
+      <c r="M125" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f>B126&amp;" "&amp;C126&amp;IF(LEN(G126&gt;1),G126,"")</f>
         <v>Phorythocarpais kempersi</v>
@@ -91790,20 +92185,23 @@
       <c r="H126" t="s">
         <v>11</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="87" t="s">
         <v>677</v>
       </c>
       <c r="J126" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K126" s="36" t="s">
+      <c r="K126" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L126" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L126" s="37" t="s">
+      <c r="M126" s="37" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f>B127&amp;" "&amp;C127&amp;IF(LEN(G127&gt;1),G127,"")</f>
         <v>Phthiracarus globosus</v>
@@ -91826,20 +92224,23 @@
       <c r="H127" t="s">
         <v>668</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="87" t="s">
         <v>701</v>
       </c>
       <c r="J127" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L127" t="s">
         <v>674</v>
       </c>
-      <c r="L127" s="37" t="s">
+      <c r="M127" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f>B128&amp;" "&amp;C128&amp;IF(LEN(G128&gt;1),G128,"")</f>
         <v>Phyllozetes emmae</v>
@@ -91862,20 +92263,23 @@
       <c r="H128" t="s">
         <v>668</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="87" t="s">
         <v>819</v>
       </c>
       <c r="J128" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L128" t="s">
         <v>674</v>
       </c>
-      <c r="L128" s="37" t="s">
+      <c r="M128" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>122</v>
       </c>
@@ -91897,20 +92301,23 @@
       <c r="H129" t="s">
         <v>668</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="87" t="s">
         <v>755</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L129" t="s">
         <v>674</v>
       </c>
-      <c r="L129" s="37" t="s">
+      <c r="M129" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="60" t="s">
         <v>152</v>
       </c>
@@ -91935,20 +92342,23 @@
       <c r="H130" t="s">
         <v>11</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="87" t="s">
         <v>714</v>
       </c>
       <c r="J130" s="32" t="s">
         <v>1114</v>
       </c>
-      <c r="K130" s="36" t="s">
+      <c r="K130" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L130" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L130" s="37" t="s">
+      <c r="M130" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>159</v>
       </c>
@@ -91970,20 +92380,23 @@
       <c r="H131" t="s">
         <v>11</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="87" t="s">
         <v>1113</v>
       </c>
       <c r="J131" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L131" t="s">
         <v>678</v>
       </c>
-      <c r="L131" s="33" t="s">
+      <c r="M131" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -92005,20 +92418,23 @@
       <c r="H132" t="s">
         <v>11</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="87" t="s">
         <v>1116</v>
       </c>
       <c r="J132" s="32" t="s">
         <v>1221</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L132" t="s">
         <v>678</v>
       </c>
-      <c r="L132" s="33" t="s">
+      <c r="M132" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -92040,20 +92456,23 @@
       <c r="H133" t="s">
         <v>11</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="87" t="s">
         <v>1115</v>
       </c>
       <c r="J133" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L133" t="s">
         <v>678</v>
       </c>
-      <c r="L133" s="33" t="s">
+      <c r="M133" s="33" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1063</v>
       </c>
@@ -92066,20 +92485,23 @@
       <c r="H134" t="s">
         <v>11</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="87" t="s">
         <v>1115</v>
       </c>
       <c r="J134" s="32" t="s">
         <v>678</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L134" t="s">
         <v>1208</v>
       </c>
-      <c r="L134" s="33" t="s">
+      <c r="M134" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1072</v>
       </c>
@@ -92092,14 +92514,17 @@
       <c r="H135" t="s">
         <v>11</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="87" t="s">
         <v>1115</v>
       </c>
       <c r="J135" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K135" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -92112,14 +92537,17 @@
       <c r="H136" t="s">
         <v>11</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J136" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K136" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f>B137&amp;" "&amp;C137&amp;IF(LEN(G137&gt;1),G137,"")</f>
         <v>Protogamasellus massula</v>
@@ -92142,20 +92570,23 @@
       <c r="H137" t="s">
         <v>11</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J137" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K137" s="36" t="s">
+      <c r="K137" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L137" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L137" s="37" t="s">
+      <c r="M137" s="37" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f>B138&amp;" "&amp;C138&amp;IF(LEN(G138&gt;1),G138,"")</f>
         <v>Protogamasellus mica</v>
@@ -92178,20 +92609,23 @@
       <c r="H138" t="s">
         <v>11</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J138" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K138" s="36" t="s">
+      <c r="K138" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L138" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L138" s="37" t="s">
+      <c r="M138" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1064</v>
       </c>
@@ -92204,16 +92638,19 @@
       <c r="H139" t="s">
         <v>11</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J139" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K139" s="36"/>
-      <c r="L139" s="37"/>
+      <c r="K139" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L139" s="36"/>
+      <c r="M139" s="37"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1073</v>
       </c>
@@ -92226,16 +92663,19 @@
       <c r="H140" t="s">
         <v>11</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="87" t="s">
         <v>687</v>
       </c>
       <c r="J140" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="K140" s="36"/>
-      <c r="L140" s="37"/>
+      <c r="K140" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L140" s="36"/>
+      <c r="M140" s="37"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>B141&amp;" "&amp;C141&amp;IF(LEN(G141&gt;1),G141,"")</f>
         <v>Protoribates capucinus</v>
@@ -92258,20 +92698,23 @@
       <c r="H141" t="s">
         <v>668</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="87" t="s">
         <v>827</v>
       </c>
       <c r="J141" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K141" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L141" t="s">
         <v>674</v>
       </c>
-      <c r="L141" s="37" t="s">
+      <c r="M141" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>B142&amp;" "&amp;C142&amp;IF(LEN(G142&gt;1),G142,"")</f>
         <v>Pseudoparasitus missouriensis</v>
@@ -92294,20 +92737,23 @@
       <c r="H142" t="s">
         <v>11</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="87" t="s">
         <v>685</v>
       </c>
       <c r="J142" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K142" s="36" t="s">
+      <c r="K142" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L142" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L142" s="37" t="s">
+      <c r="M142" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f>B143&amp;" "&amp;C143&amp;IF(LEN(G143&gt;1),G143,"")</f>
         <v>Punctoribates hexagonus</v>
@@ -92330,20 +92776,23 @@
       <c r="H143" t="s">
         <v>668</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="87" t="s">
         <v>833</v>
       </c>
       <c r="J143" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L143" t="s">
         <v>674</v>
       </c>
-      <c r="L143" s="37" t="s">
+      <c r="M143" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f>B144&amp;" "&amp;C144&amp;IF(LEN(G144&gt;1),G144,"")</f>
         <v>Punctoribates insignis</v>
@@ -92366,20 +92815,23 @@
       <c r="H144" t="s">
         <v>668</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="87" t="s">
         <v>833</v>
       </c>
       <c r="J144" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K144" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L144" t="s">
         <v>678</v>
       </c>
-      <c r="L144" s="37" t="s">
+      <c r="M144" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>130</v>
       </c>
@@ -92401,20 +92853,23 @@
       <c r="H145" t="s">
         <v>668</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="87" t="s">
         <v>833</v>
       </c>
       <c r="J145" s="32" t="s">
         <v>801</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K145" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L145" t="s">
         <v>678</v>
       </c>
-      <c r="L145" s="37" t="s">
+      <c r="M145" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>221</v>
       </c>
@@ -92427,14 +92882,17 @@
       <c r="H146" t="s">
         <v>9</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="87" t="s">
         <v>1182</v>
       </c>
       <c r="J146" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K146" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>B147&amp;" "&amp;C147&amp;IF(LEN(G147&gt;1),G147,"")</f>
         <v>Pyroppia lanceolata</v>
@@ -92457,20 +92915,23 @@
       <c r="H147" t="s">
         <v>668</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="87" t="s">
         <v>838</v>
       </c>
       <c r="J147" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L147" t="s">
         <v>674</v>
       </c>
-      <c r="L147" s="37" t="s">
+      <c r="M147" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>104</v>
       </c>
@@ -92492,20 +92953,23 @@
       <c r="H148" t="s">
         <v>668</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J148" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K148" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L148" t="s">
         <v>678</v>
       </c>
-      <c r="L148" s="37" t="s">
+      <c r="M148" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>135</v>
       </c>
@@ -92527,20 +92991,23 @@
       <c r="H149" t="s">
         <v>668</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="87" t="s">
         <v>709</v>
       </c>
       <c r="J149" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K149" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L149" t="s">
         <v>674</v>
       </c>
-      <c r="L149" s="37" t="s">
+      <c r="M149" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>201</v>
       </c>
@@ -92562,20 +93029,23 @@
       <c r="H150" t="s">
         <v>11</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="87" t="s">
         <v>841</v>
       </c>
       <c r="J150" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L150" t="s">
         <v>678</v>
       </c>
-      <c r="L150" s="33" t="s">
+      <c r="M150" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f>B151&amp;" "&amp;C151&amp;IF(LEN(G151&gt;1)," "&amp;G151,"")</f>
         <v>Rhodacarus denticulatus (cf.)</v>
@@ -92601,20 +93071,23 @@
       <c r="H151" t="s">
         <v>11</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="87" t="s">
         <v>841</v>
       </c>
       <c r="J151" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K151" s="36" t="s">
+      <c r="K151" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L151" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L151" s="37" t="s">
+      <c r="M151" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>68</v>
       </c>
@@ -92636,20 +93109,23 @@
       <c r="H152" t="s">
         <v>668</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="87" t="s">
         <v>844</v>
       </c>
       <c r="J152" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K152" t="s">
+      <c r="K152" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L152" t="s">
         <v>674</v>
       </c>
-      <c r="L152" s="37" t="s">
+      <c r="M152" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f>B153&amp;" "&amp;C153&amp;IF(LEN(G153&gt;1)," "&amp;G153,"")</f>
         <v>Scheloribates laevigatus (cf.)</v>
@@ -92675,20 +93151,23 @@
       <c r="H153" t="s">
         <v>668</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="87" t="s">
         <v>844</v>
       </c>
       <c r="J153" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K153" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L153" t="s">
         <v>674</v>
       </c>
-      <c r="L153" s="37" t="s">
+      <c r="M153" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>73</v>
       </c>
@@ -92710,20 +93189,23 @@
       <c r="H154" t="s">
         <v>668</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="87" t="s">
         <v>738</v>
       </c>
       <c r="J154" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L154" t="s">
         <v>678</v>
       </c>
-      <c r="L154" s="37" t="s">
+      <c r="M154" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>91</v>
       </c>
@@ -92745,20 +93227,23 @@
       <c r="H155" t="s">
         <v>668</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="87" t="s">
         <v>738</v>
       </c>
       <c r="J155" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K155" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L155" t="s">
         <v>674</v>
       </c>
-      <c r="L155" s="37" t="s">
+      <c r="M155" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f>B156&amp;" "&amp;C156&amp;IF(LEN(G156&gt;1),G156,"")</f>
         <v>Sphaerochthonius splendidus</v>
@@ -92781,20 +93266,23 @@
       <c r="H156" t="s">
         <v>668</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="87" t="s">
         <v>847</v>
       </c>
       <c r="J156" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L156" t="s">
         <v>674</v>
       </c>
-      <c r="L156" s="37" t="s">
+      <c r="M156" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>107</v>
       </c>
@@ -92816,20 +93304,23 @@
       <c r="H157" t="s">
         <v>668</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="87" t="s">
         <v>851</v>
       </c>
       <c r="J157" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L157" t="s">
         <v>674</v>
       </c>
-      <c r="L157" s="37" t="s">
+      <c r="M157" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>109</v>
       </c>
@@ -92851,20 +93342,23 @@
       <c r="H158" t="s">
         <v>668</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="87" t="s">
         <v>851</v>
       </c>
       <c r="J158" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L158" t="s">
         <v>674</v>
       </c>
-      <c r="L158" s="37" t="s">
+      <c r="M158" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>108</v>
       </c>
@@ -92886,20 +93380,23 @@
       <c r="H159" t="s">
         <v>668</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="87" t="s">
         <v>851</v>
       </c>
       <c r="J159" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L159" t="s">
         <v>674</v>
       </c>
-      <c r="L159" s="37" t="s">
+      <c r="M159" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f>B160&amp;" "&amp;C160&amp;IF(LEN(G160&gt;1),G160,"")</f>
         <v>Suctobelbella arcana</v>
@@ -92922,20 +93419,23 @@
       <c r="H160" t="s">
         <v>668</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="87" t="s">
         <v>851</v>
       </c>
       <c r="J160" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K160" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L160" t="s">
         <v>674</v>
       </c>
-      <c r="L160" s="37" t="s">
+      <c r="M160" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>121</v>
       </c>
@@ -92957,20 +93457,23 @@
       <c r="H161" t="s">
         <v>668</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="87" t="s">
         <v>926</v>
       </c>
       <c r="J161" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K161" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L161" t="s">
         <v>674</v>
       </c>
-      <c r="L161" s="37" t="s">
+      <c r="M161" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f>B162&amp;" "&amp;C162&amp;IF(LEN(G162&gt;1),G162,"")</f>
         <v>Thinoseius spinosus</v>
@@ -92993,20 +93496,23 @@
       <c r="H162" t="s">
         <v>11</v>
       </c>
-      <c r="I162" s="36" t="s">
+      <c r="I162" s="88" t="s">
         <v>854</v>
       </c>
       <c r="J162" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="K162" s="36" t="s">
+      <c r="K162" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L162" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L162" s="32" t="s">
+      <c r="M162" s="32" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>215</v>
       </c>
@@ -93028,20 +93534,23 @@
       <c r="H163" t="s">
         <v>11</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="87" t="s">
         <v>1211</v>
       </c>
       <c r="J163" s="32" t="s">
         <v>1218</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K163" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L163" t="s">
         <v>703</v>
       </c>
-      <c r="L163" s="33" t="s">
+      <c r="M163" s="33" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>70</v>
       </c>
@@ -93063,20 +93572,23 @@
       <c r="H164" t="s">
         <v>668</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="87" t="s">
         <v>885</v>
       </c>
       <c r="J164" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K164" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L164" t="s">
         <v>674</v>
       </c>
-      <c r="L164" s="37" t="s">
+      <c r="M164" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f>B165&amp;" "&amp;C165&amp;IF(LEN(G165&gt;1),G165,"")</f>
         <v>Trichogalumna nipponica</v>
@@ -93099,20 +93611,23 @@
       <c r="H165" t="s">
         <v>668</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="87" t="s">
         <v>755</v>
       </c>
       <c r="J165" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K165" t="s">
+      <c r="K165" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L165" t="s">
         <v>674</v>
       </c>
-      <c r="L165" s="37" t="s">
+      <c r="M165" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>114</v>
       </c>
@@ -93134,20 +93649,23 @@
       <c r="H166" t="s">
         <v>668</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="87" t="s">
         <v>914</v>
       </c>
       <c r="J166" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K166" t="s">
+      <c r="K166" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L166" t="s">
         <v>674</v>
       </c>
-      <c r="L166" s="37" t="s">
+      <c r="M166" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>219</v>
       </c>
@@ -93172,20 +93690,23 @@
       <c r="H167" t="s">
         <v>11</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J167" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="K167" t="s">
+      <c r="K167" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L167" t="s">
         <v>678</v>
       </c>
-      <c r="L167" s="33" t="s">
+      <c r="M167" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>157</v>
       </c>
@@ -93198,14 +93719,17 @@
       <c r="H168" t="s">
         <v>11</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="87" t="s">
         <v>682</v>
       </c>
       <c r="J168" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K168" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1065</v>
       </c>
@@ -93218,14 +93742,17 @@
       <c r="H169" t="s">
         <v>9</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="87" t="s">
         <v>1086</v>
       </c>
       <c r="J169" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K169" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1074</v>
       </c>
@@ -93238,14 +93765,17 @@
       <c r="H170" t="s">
         <v>9</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="87" t="s">
         <v>1086</v>
       </c>
       <c r="J170" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K170" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>213</v>
       </c>
@@ -93270,20 +93800,23 @@
       <c r="H171" t="s">
         <v>11</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J171" s="32" t="s">
         <v>801</v>
       </c>
-      <c r="K171" t="s">
+      <c r="K171" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L171" t="s">
         <v>1102</v>
       </c>
-      <c r="L171" s="33" t="s">
+      <c r="M171" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1066</v>
       </c>
@@ -93296,14 +93829,17 @@
       <c r="H172" t="s">
         <v>11</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J172" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K172" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1075</v>
       </c>
@@ -93316,14 +93852,17 @@
       <c r="H173" t="s">
         <v>11</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J173" s="32" t="s">
         <v>1087</v>
       </c>
+      <c r="K173" s="32" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>212</v>
       </c>
@@ -93345,20 +93884,23 @@
       <c r="H174" t="s">
         <v>11</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J174" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K174" t="s">
+      <c r="K174" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L174" t="s">
         <v>703</v>
       </c>
-      <c r="L174" s="33" t="s">
+      <c r="M174" s="33" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f>B175&amp;" "&amp;C175&amp;IF(LEN(G175&gt;1),G175,"")</f>
         <v>Uropoda orbicularis</v>
@@ -93381,20 +93923,23 @@
       <c r="H175" t="s">
         <v>11</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="87" t="s">
         <v>860</v>
       </c>
       <c r="J175" s="32" t="s">
         <v>1223</v>
       </c>
-      <c r="K175" s="36" t="s">
+      <c r="K175" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L175" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L175" s="37" t="s">
+      <c r="M175" s="37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f>B176&amp;" "&amp;C176&amp;IF(LEN(G176&gt;1),G176,"")</f>
         <v>Urubambates elongatus</v>
@@ -93417,20 +93962,23 @@
       <c r="H176" t="s">
         <v>668</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="87" t="s">
         <v>844</v>
       </c>
       <c r="J176" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K176" t="s">
+      <c r="K176" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L176" t="s">
         <v>674</v>
       </c>
-      <c r="L176" s="37" t="s">
+      <c r="M176" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -93452,20 +94000,23 @@
       <c r="H177" t="s">
         <v>11</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="87" t="s">
         <v>725</v>
       </c>
       <c r="J177" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K177" t="s">
+      <c r="K177" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L177" t="s">
         <v>678</v>
       </c>
-      <c r="L177" s="33" t="s">
+      <c r="M177" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f>B178&amp;" "&amp;C178&amp;IF(LEN(G178&gt;1),G178,"")</f>
         <v>Veigaia planicola</v>
@@ -93488,20 +94039,23 @@
       <c r="H178" t="s">
         <v>11</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="87" t="s">
         <v>725</v>
       </c>
       <c r="J178" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="K178" s="36" t="s">
+      <c r="K178" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="L178" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="L178" s="37" t="s">
+      <c r="M178" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f>B179&amp;" "&amp;C179&amp;IF(LEN(G179&gt;1),G179,"")</f>
         <v>Xenillus moyae</v>
@@ -93524,20 +94078,23 @@
       <c r="H179" t="s">
         <v>668</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="87" t="s">
         <v>869</v>
       </c>
       <c r="J179" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="K179" t="s">
+      <c r="K179" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="L179" t="s">
         <v>703</v>
       </c>
-      <c r="L179" s="37" t="s">
+      <c r="M179" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>131</v>
       </c>
@@ -93559,20 +94116,23 @@
       <c r="H180" t="s">
         <v>668</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="87" t="s">
         <v>869</v>
       </c>
       <c r="J180" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K180" t="s">
+      <c r="K180" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L180" t="s">
         <v>674</v>
       </c>
-      <c r="L180" s="37" t="s">
+      <c r="M180" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>205</v>
       </c>
@@ -93585,17 +94145,20 @@
       <c r="H181" t="s">
         <v>11</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="87" t="s">
         <v>1215</v>
       </c>
       <c r="J181" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="L181" s="33" t="s">
+      <c r="K181" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M181" s="33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f>B182&amp;" "&amp;C182&amp;IF(LEN(G182&gt;1),G182,"")</f>
         <v>Zetomimus furcatus</v>
@@ -93618,20 +94181,23 @@
       <c r="H182" t="s">
         <v>668</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" s="87" t="s">
         <v>874</v>
       </c>
       <c r="J182" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K182" t="s">
+      <c r="K182" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L182" t="s">
         <v>678</v>
       </c>
-      <c r="L182" s="37" t="s">
+      <c r="M182" s="37" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f>B183&amp;" "&amp;C183&amp;IF(LEN(G183&gt;1),G183,"")</f>
         <v>Zygoribatula caspica</v>
@@ -93654,20 +94220,23 @@
       <c r="H183" t="s">
         <v>668</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="87" t="s">
         <v>805</v>
       </c>
       <c r="J183" s="32" t="s">
         <v>801</v>
       </c>
-      <c r="K183" t="s">
+      <c r="K183" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L183" t="s">
         <v>674</v>
       </c>
-      <c r="L183" s="37" t="s">
+      <c r="M183" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f>B184&amp;" "&amp;C184&amp;IF(LEN(G184&gt;1),G184,"")</f>
         <v>Zygoribatula exarata</v>
@@ -93690,20 +94259,23 @@
       <c r="H184" t="s">
         <v>668</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="87" t="s">
         <v>805</v>
       </c>
       <c r="J184" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K184" t="s">
+      <c r="K184" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L184" t="s">
         <v>674</v>
       </c>
-      <c r="L184" s="37" t="s">
+      <c r="M184" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f>B185&amp;" "&amp;C185&amp;IF(LEN(G185&gt;1)," "&amp;G185,"")</f>
         <v>Zygoribatula glabra (cf.)</v>
@@ -93729,20 +94301,23 @@
       <c r="H185" t="s">
         <v>668</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="87" t="s">
         <v>805</v>
       </c>
       <c r="J185" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="K185" t="s">
+      <c r="K185" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="L185" t="s">
         <v>674</v>
       </c>
-      <c r="L185" s="37" t="s">
+      <c r="M185" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>110</v>
       </c>
@@ -93764,29 +94339,35 @@
       <c r="H186" t="s">
         <v>668</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="87" t="s">
         <v>805</v>
       </c>
       <c r="J186" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="K186" t="s">
+      <c r="K186" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L186" t="s">
         <v>674</v>
       </c>
-      <c r="L186" s="37" t="s">
+      <c r="M186" s="37" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H187" t="s">
         <v>668</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="87" t="s">
         <v>805</v>
+      </c>
+      <c r="K187" s="32" t="s">
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L187" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:M187" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>

--- a/Caspian data_01.03.2023_SA.xlsx
+++ b/Caspian data_01.03.2023_SA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Kasp.Makarova\GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Kasp.Makarova\samoor_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ACF297-4A35-4BFA-BCC1-41EC42240F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57407B62-991D-44B7-AD30-156F5169DBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">taxa!$A$1:$M$187</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -14427,11 +14438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063C54F6-9974-4A52-8E50-015E1BA8AE24}">
   <dimension ref="A1:CT194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="BR170" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="CD4" sqref="CD4"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -70653,7 +70664,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B194" xr:uid="{063C54F6-9974-4A52-8E50-015E1BA8AE24}"/>
   <conditionalFormatting sqref="CI9:CT194 C10:CD194">
     <cfRule type="cellIs" dxfId="963" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -87759,7 +87769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
